--- a/assets/uploads/templates/template9.xlsx
+++ b/assets/uploads/templates/template9.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Test\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D53337-4CC3-4CB0-81AF-30DC96EEBD42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E6EF17-44AD-442F-8B02-8CF0DF428908}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="L9Z15vBEz2epGjrmnD2GCZ3TpAEXPNqlWRnxO6loUarhdnFKARBiGAH/Wyv79dpM+TVRnBe6uTeWl8Q6c6dAtQ==" workbookSaltValue="/6iLE69xz0Zw6rrNckWjJA==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5400" activeTab="1" xr2:uid="{583A6A4E-A812-461C-B0D8-F3BD4B06D54C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17268" windowHeight="5400" firstSheet="1" activeTab="2" xr2:uid="{583A6A4E-A812-461C-B0D8-F3BD4B06D54C}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -968,12 +968,51 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -985,45 +1024,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1355,43 +1355,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="115.2" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="30"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
     </row>
     <row r="3" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="30" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="32" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
@@ -1494,16 +1494,16 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="31" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -1512,51 +1512,51 @@
       <c r="C12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E12" s="44"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="36"/>
+      <c r="A13" s="31"/>
       <c r="B13" s="6"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="37"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="46"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="37"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="6"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="45" t="s">
+      <c r="D15" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="45"/>
+      <c r="E15" s="39"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="37"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
     </row>
     <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="37"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="8" t="s">
         <v>61</v>
       </c>
@@ -1570,22 +1570,22 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="39" t="s">
+      <c r="A19" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="39"/>
+      <c r="B19" s="34"/>
     </row>
     <row r="20" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="41"/>
+      <c r="B20" s="36"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="40"/>
+      <c r="B21" s="35"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5" t="s">
@@ -1690,13 +1690,13 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="39"/>
+      <c r="B34" s="34"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="31" t="s">
         <v>60</v>
       </c>
       <c r="B35" s="6" t="s">
@@ -1704,25 +1704,25 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="37"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="37"/>
+      <c r="A37" s="32"/>
       <c r="B37" s="12" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="37"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="37"/>
+      <c r="A39" s="32"/>
       <c r="B39" s="8" t="s">
         <v>62</v>
       </c>
@@ -1752,7 +1752,7 @@
       </c>
     </row>
     <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="33" t="s">
         <v>9</v>
       </c>
       <c r="B43" s="13" t="s">
@@ -1760,13 +1760,13 @@
       </c>
     </row>
     <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="38"/>
+      <c r="A44" s="33"/>
       <c r="B44" s="13" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="34" t="s">
+      <c r="A45" s="29" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -1774,19 +1774,19 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="34"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="13" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="34"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="34"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="20" t="s">
         <v>52</v>
       </c>
@@ -1794,13 +1794,11 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="fs9sxagiXee2QLASIeuAUv5AjCSYKtP3nVe2jlSIXoRFu6g00a5ndDbe7bI0a2pl3mHPVwJzVuvDh/+1jtcX+Q==" saltValue="bc8HRvpigal/MHhDBVvNDQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="20">
-    <mergeCell ref="D12:E13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A11:E11"/>
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="D16:E16"/>
     <mergeCell ref="A45:A48"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A35:A39"/>
@@ -1813,7 +1811,9 @@
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A12:A17"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D12:E13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1824,7 +1824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DA28751-528F-4A6F-8C3E-65A25DE939E8}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1896,10 +1896,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3AC035-B786-4019-BEDA-2BA1ADC5DFA8}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A3:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1933,6 +1933,28 @@
         <v>100</v>
       </c>
     </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="27">
+        <v>43410</v>
+      </c>
+      <c r="B3" s="26">
+        <v>0</v>
+      </c>
+      <c r="C3" s="26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="27">
+        <v>43411</v>
+      </c>
+      <c r="B4" s="26">
+        <v>0</v>
+      </c>
+      <c r="C4" s="26">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="8eEDGcpQLG8VbIPsgTqs8X15c75LNoGef+7MaN3HYp1/HA1/wPPys1+FZposxVNZNgeCR1de+Cza32pG/Da2iw==" saltValue="0HZRjRlau23EoOH5JoP4Vg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1945,7 +1967,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B12" sqref="B12:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
